--- a/document/工作计划.xlsx
+++ b/document/工作计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4239F35D-B316-409C-B542-961779470903}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99CF7B82-463B-4EF4-8256-7D26BA753026}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>下一步任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确定商品类别
+    <t xml:space="preserve">确定商品类别
 找商品素材
-（包括商品价格、商品描述、上架时间、商品评价、商品图片）</t>
+（包括商品价格、商品描述、上架时间、商品评价、商品图片）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（finished）</t>
+  </si>
+  <si>
+    <t>建商品信息数据表、商品评论表
+查看评论界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -90,6 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,26 +380,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="1" max="3" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/工作计划.xlsx
+++ b/document/工作计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99CF7B82-463B-4EF4-8256-7D26BA753026}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D35B490-2027-4A5F-949E-A81D417A958A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>下一步任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,14 @@
   <si>
     <t>建商品信息数据表、商品评论表
 查看评论界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论页面完成，建表之后在完成，先完成js的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页、评论页面、购物车js的编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -100,6 +108,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -380,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="27.625" customWidth="1"/>
+    <col min="1" max="5" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,22 +412,36 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/document/工作计划.xlsx
+++ b/document/工作计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D35B490-2027-4A5F-949E-A81D417A958A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E9E7D00-5EAA-49BA-8845-C2EF7959EFB0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主页、评论页面、购物车js的编写</t>
+    <t>主页、评论页面、购物车js的编写
+主页、评论页面、购物车用jsp写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +395,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/document/工作计划.xlsx
+++ b/document/工作计划.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E9E7D00-5EAA-49BA-8845-C2EF7959EFB0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ADC7C324-CF9C-4BC7-AAA8-CBB76D6D6E7C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/document/工作计划.xlsx
+++ b/document/工作计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ADC7C324-CF9C-4BC7-AAA8-CBB76D6D6E7C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{844C6120-13C7-4969-B431-5AB2839BC50D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>下一步任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,8 +45,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主页、评论页面、购物车js的编写
-主页、评论页面、购物车用jsp写</t>
+    <t>js编写完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主页、评论页面、购物车js的编写
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论信息列表类
+商品信息类
+购物车商品信息类
+主页、评论页面、购物车用jsp写
+实现交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -111,6 +123,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,9 +443,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -440,7 +457,9 @@
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>

--- a/document/工作计划.xlsx
+++ b/document/工作计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{844C6120-13C7-4969-B431-5AB2839BC50D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE39E05A-BD95-4675-9445-F4A5A37DB3E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>下一步任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
 购物车商品信息类
 主页、评论页面、购物车用jsp写
 实现交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页交互已完成（用户信息部分未完成）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,6 +130,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,7 +417,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,7 +467,9 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
   </sheetData>
